--- a/db/proiezioni.xlsx
+++ b/db/proiezioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuse\Desktop\projects\cineMille\cineMille\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4830EDFF-C81D-473C-AEF4-8B4E88679685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98C0F16-BAB0-498D-820B-EB15AF213B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="2850" windowWidth="15375" windowHeight="7875" xr2:uid="{CE941F74-4090-41AE-986B-6578026A8904}"/>
+    <workbookView xWindow="3705" yWindow="2970" windowWidth="15375" windowHeight="7875" xr2:uid="{CE941F74-4090-41AE-986B-6578026A8904}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -50,11 +50,17 @@
   <si>
     <t>data_fine</t>
   </si>
+  <si>
+    <t>orario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,9 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -401,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FB296D-841E-47C2-AA9D-17CC3CDF8D6C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +421,7 @@
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +437,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -447,8 +458,11 @@
         <f>D2+7</f>
         <v>43838</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -462,11 +476,14 @@
         <v>44449</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E10" si="0">D3+7</f>
+        <f t="shared" ref="E3:E9" si="0">D3+7</f>
         <v>44456</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="2">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -480,11 +497,14 @@
         <v>45352</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f>D4+14</f>
+        <v>45366</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -498,11 +518,14 @@
         <v>44732</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>44739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f>D5+14</f>
+        <v>44746</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -519,8 +542,11 @@
         <f t="shared" si="0"/>
         <v>45350</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -531,14 +557,17 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>45352</v>
+        <v>44732</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>45359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f>D7+14</f>
+        <v>44746</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -555,8 +584,11 @@
         <f t="shared" si="0"/>
         <v>44739</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -573,8 +605,11 @@
         <f t="shared" si="0"/>
         <v>45350</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -585,11 +620,14 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>44449</v>
+        <v>45343</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>44456</v>
+        <f t="shared" ref="E10" si="1">D10+7</f>
+        <v>45350</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>

--- a/db/proiezioni.xlsx
+++ b/db/proiezioni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\giuse\Desktop\projects\cineMille\cineMille\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98C0F16-BAB0-498D-820B-EB15AF213B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B304334C-1392-44CC-844B-8EE0920ECC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="2970" windowWidth="15375" windowHeight="7875" xr2:uid="{CE941F74-4090-41AE-986B-6578026A8904}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CE941F74-4090-41AE-986B-6578026A8904}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -94,7 +94,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,11 +452,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>43831</v>
+        <v>45387</v>
       </c>
       <c r="E2" s="1">
         <f>D2+7</f>
-        <v>43838</v>
+        <v>45394</v>
       </c>
       <c r="F2" s="3">
         <v>0.77083333333333337</v>
@@ -620,11 +620,11 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>45343</v>
+        <v>45383</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" ref="E10" si="1">D10+7</f>
-        <v>45350</v>
+        <f>D10+7</f>
+        <v>45390</v>
       </c>
       <c r="F10" s="2">
         <v>0.875</v>
